--- a/Code/Results/Cases/Case_5_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_105/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.70127746173166</v>
+        <v>21.24103426297824</v>
       </c>
       <c r="C2">
-        <v>18.33325874965894</v>
+        <v>10.16730127147443</v>
       </c>
       <c r="D2">
-        <v>4.046931801171683</v>
+        <v>6.783034899723307</v>
       </c>
       <c r="E2">
-        <v>5.408606005173041</v>
+        <v>9.242673668494666</v>
       </c>
       <c r="F2">
-        <v>34.89368010892514</v>
+        <v>36.50089427488131</v>
       </c>
       <c r="I2">
-        <v>22.12958310995356</v>
+        <v>28.57412395558024</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.878944324378306</v>
+        <v>10.51400227631765</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.118011990612</v>
+        <v>18.8490871953992</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.80289201459398</v>
+        <v>20.73311303431587</v>
       </c>
       <c r="C3">
-        <v>17.02767572057294</v>
+        <v>9.571374779614219</v>
       </c>
       <c r="D3">
-        <v>4.149420517295117</v>
+        <v>6.813626447635501</v>
       </c>
       <c r="E3">
-        <v>5.437904656594443</v>
+        <v>9.258936321943976</v>
       </c>
       <c r="F3">
-        <v>33.22430197291443</v>
+        <v>36.25053531943211</v>
       </c>
       <c r="I3">
-        <v>21.56094985310366</v>
+        <v>28.56997137617331</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.586995017726126</v>
+        <v>10.49248674702804</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.40265350953948</v>
+        <v>18.92323688013348</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.57997206530588</v>
+        <v>20.42113794443177</v>
       </c>
       <c r="C4">
-        <v>16.18636436005735</v>
+        <v>9.188186371296116</v>
       </c>
       <c r="D4">
-        <v>4.214241492524637</v>
+        <v>6.833358383625877</v>
       </c>
       <c r="E4">
-        <v>5.457215377164881</v>
+        <v>9.269554832211197</v>
       </c>
       <c r="F4">
-        <v>32.20217871810468</v>
+        <v>36.1080944637791</v>
       </c>
       <c r="I4">
-        <v>21.23234829835765</v>
+        <v>28.57515571999618</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.408720775514845</v>
+        <v>10.48153583486193</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.58006538251328</v>
+        <v>18.97075048805329</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.10449621543617</v>
+        <v>20.2941812516534</v>
       </c>
       <c r="C5">
-        <v>15.8333590023186</v>
+        <v>9.027830497371921</v>
       </c>
       <c r="D5">
-        <v>4.241120767759194</v>
+        <v>6.841638131437128</v>
       </c>
       <c r="E5">
-        <v>5.465409886560725</v>
+        <v>9.274041532107022</v>
       </c>
       <c r="F5">
-        <v>31.78673745497063</v>
+        <v>36.0529296647111</v>
       </c>
       <c r="I5">
-        <v>21.10349691627368</v>
+        <v>28.57920677570074</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.336387448443886</v>
+        <v>10.47764380748843</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.65307523672233</v>
+        <v>18.99061338602422</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.02485825587518</v>
+        <v>20.27311685253606</v>
       </c>
       <c r="C6">
-        <v>15.77412361809721</v>
+        <v>9.000954446605759</v>
       </c>
       <c r="D6">
-        <v>4.245611824834591</v>
+        <v>6.84302741041934</v>
       </c>
       <c r="E6">
-        <v>5.466790034546705</v>
+        <v>9.274796193342343</v>
       </c>
       <c r="F6">
-        <v>31.71783118295675</v>
+        <v>36.04394478096584</v>
       </c>
       <c r="I6">
-        <v>21.08240334765796</v>
+        <v>28.5799963123915</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.324397730430476</v>
+        <v>10.47703205817566</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.66524292794425</v>
+        <v>18.99394189045221</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.57354073426803</v>
+        <v>20.41942477799911</v>
       </c>
       <c r="C7">
-        <v>16.18164499875357</v>
+        <v>9.186040563501928</v>
       </c>
       <c r="D7">
-        <v>4.214602128666849</v>
+        <v>6.833469079853289</v>
       </c>
       <c r="E7">
-        <v>5.4573245829006</v>
+        <v>9.269614694835154</v>
       </c>
       <c r="F7">
-        <v>32.19657101572562</v>
+        <v>36.10733877281238</v>
       </c>
       <c r="I7">
-        <v>21.23059023780087</v>
+        <v>28.57520251507649</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.407743891748455</v>
+        <v>10.48148103274055</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.58104706844047</v>
+        <v>18.97101633678426</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.05849856921763</v>
+        <v>21.06604568684337</v>
       </c>
       <c r="C8">
-        <v>17.89121230808264</v>
+        <v>9.965490839614231</v>
       </c>
       <c r="D8">
-        <v>4.081868685400815</v>
+        <v>6.793386155724211</v>
       </c>
       <c r="E8">
-        <v>5.418429448148647</v>
+        <v>9.248149828323218</v>
       </c>
       <c r="F8">
-        <v>34.31766746479718</v>
+        <v>36.41225763017729</v>
       </c>
       <c r="I8">
-        <v>21.92919015158203</v>
+        <v>28.57108347763704</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.778113232456624</v>
+        <v>10.50611626462329</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.21563848560676</v>
+        <v>18.87424282729008</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.48682580630602</v>
+        <v>22.32462432897433</v>
       </c>
       <c r="C9">
-        <v>20.93802257313876</v>
+        <v>11.35190367399198</v>
       </c>
       <c r="D9">
-        <v>3.837402928147456</v>
+        <v>6.7222970804816</v>
       </c>
       <c r="E9">
-        <v>5.353010407593517</v>
+        <v>9.211065352732868</v>
       </c>
       <c r="F9">
-        <v>38.48932819719696</v>
+        <v>37.09748599449426</v>
       </c>
       <c r="I9">
-        <v>23.46715007849414</v>
+        <v>28.6246029503037</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.509868698319725</v>
+        <v>10.57223251628999</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.51770044121076</v>
+        <v>18.70015472599594</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.4840986579132</v>
+        <v>23.23267697735594</v>
       </c>
       <c r="C10">
-        <v>23.00431864446972</v>
+        <v>12.29779322933993</v>
       </c>
       <c r="D10">
-        <v>3.669163088399698</v>
+        <v>6.674629660981503</v>
       </c>
       <c r="E10">
-        <v>5.312183995190389</v>
+        <v>9.18685053130913</v>
       </c>
       <c r="F10">
-        <v>41.55560486910429</v>
+        <v>37.65079809015307</v>
       </c>
       <c r="I10">
-        <v>24.70743516849271</v>
+        <v>28.70170920612008</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.048760560409635</v>
+        <v>10.63146909418593</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.01290443399532</v>
+        <v>18.58171520939555</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.79615990449061</v>
+        <v>23.64006818330397</v>
       </c>
       <c r="C11">
-        <v>23.91052814866648</v>
+        <v>12.7298900396777</v>
       </c>
       <c r="D11">
-        <v>3.595717868082053</v>
+        <v>6.653931447734021</v>
       </c>
       <c r="E11">
-        <v>5.295357875174613</v>
+        <v>9.176488174595951</v>
       </c>
       <c r="F11">
-        <v>42.9520632846608</v>
+        <v>37.91253805315009</v>
       </c>
       <c r="I11">
-        <v>25.29785590465488</v>
+        <v>28.74501282236989</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.294104029979975</v>
+        <v>10.66068086674392</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.78422741250184</v>
+        <v>18.52986777789281</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.28601687225486</v>
+        <v>23.79335975593911</v>
       </c>
       <c r="C12">
-        <v>24.24917388274635</v>
+        <v>12.88978341919006</v>
       </c>
       <c r="D12">
-        <v>3.568426619745206</v>
+        <v>6.646235152498682</v>
       </c>
       <c r="E12">
-        <v>5.28925568411706</v>
+        <v>9.172657788457808</v>
       </c>
       <c r="F12">
-        <v>43.48137419899361</v>
+        <v>38.0130218233763</v>
       </c>
       <c r="I12">
-        <v>25.52543860890792</v>
+        <v>28.76259308836847</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.387055822714</v>
+        <v>10.67206313834754</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.69770765412726</v>
+        <v>18.51052507747642</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.18082136803832</v>
+        <v>23.76039163344783</v>
       </c>
       <c r="C13">
-        <v>24.17643544832239</v>
+        <v>12.85551321178835</v>
       </c>
       <c r="D13">
-        <v>3.574279626959125</v>
+        <v>6.647886388050013</v>
       </c>
       <c r="E13">
-        <v>5.290557582430261</v>
+        <v>9.173478571884855</v>
       </c>
       <c r="F13">
-        <v>43.36734932076628</v>
+        <v>37.9913211994109</v>
       </c>
       <c r="I13">
-        <v>25.47624220756393</v>
+        <v>28.75875431951428</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.367034459970377</v>
+        <v>10.669597600867</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.71633887335789</v>
+        <v>18.51467796135169</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.83659835823256</v>
+        <v>23.65270006588486</v>
       </c>
       <c r="C14">
-        <v>23.93847714863396</v>
+        <v>12.74311925640064</v>
       </c>
       <c r="D14">
-        <v>3.593461635082323</v>
+        <v>6.65329543016428</v>
       </c>
       <c r="E14">
-        <v>5.294850324908785</v>
+        <v>9.176171171967679</v>
       </c>
       <c r="F14">
-        <v>42.99559784393491</v>
+        <v>37.92077792404056</v>
       </c>
       <c r="I14">
-        <v>25.31649749393806</v>
+        <v>28.74643548077312</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.30175014176999</v>
+        <v>10.66161090337857</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.77710822748992</v>
+        <v>18.52827062168772</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.62485414243544</v>
+        <v>23.58660385160472</v>
       </c>
       <c r="C15">
-        <v>23.79214348944249</v>
+        <v>12.67378922067842</v>
       </c>
       <c r="D15">
-        <v>3.605281691511154</v>
+        <v>6.656627071353978</v>
       </c>
       <c r="E15">
-        <v>5.297515457065362</v>
+        <v>9.17783264969602</v>
       </c>
       <c r="F15">
-        <v>42.76796541976255</v>
+        <v>37.87774408802389</v>
       </c>
       <c r="I15">
-        <v>25.21917850310756</v>
+        <v>28.73904372955536</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.261768419897214</v>
+        <v>10.65676038318122</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.81433916694745</v>
+        <v>18.53663435059106</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.39735077819122</v>
+        <v>23.20592454904577</v>
       </c>
       <c r="C16">
-        <v>22.94444433911309</v>
+        <v>12.26903137171105</v>
       </c>
       <c r="D16">
-        <v>3.674031081396397</v>
+        <v>6.676002167679415</v>
       </c>
       <c r="E16">
-        <v>5.313320252310949</v>
+        <v>9.187540851740048</v>
       </c>
       <c r="F16">
-        <v>41.46439509525506</v>
+        <v>37.63388840599705</v>
       </c>
       <c r="I16">
-        <v>24.6693959603379</v>
+        <v>28.69904472196469</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.032731746511931</v>
+        <v>10.62960516940929</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.02786294306175</v>
+        <v>18.58514432422562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.6314166076664</v>
+        <v>22.97081540977798</v>
       </c>
       <c r="C17">
-        <v>22.41598920928537</v>
+        <v>12.0165367899396</v>
       </c>
       <c r="D17">
-        <v>3.717045041937858</v>
+        <v>6.688140599012551</v>
       </c>
       <c r="E17">
-        <v>5.323475225557734</v>
+        <v>9.193663575672497</v>
       </c>
       <c r="F17">
-        <v>40.66525341345153</v>
+        <v>37.4868091482114</v>
       </c>
       <c r="I17">
-        <v>24.33898484305384</v>
+        <v>28.6766136714958</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.892281418258442</v>
+        <v>10.61352278486969</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.15905368272411</v>
+        <v>18.61542295431744</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.18600505133747</v>
+        <v>22.83506048648382</v>
       </c>
       <c r="C18">
-        <v>22.1088356167493</v>
+        <v>11.87903912708894</v>
       </c>
       <c r="D18">
-        <v>3.742070368094061</v>
+        <v>6.69521510944418</v>
       </c>
       <c r="E18">
-        <v>5.329479152599352</v>
+        <v>9.197246693790493</v>
       </c>
       <c r="F18">
-        <v>40.20573319317878</v>
+        <v>37.4031623237573</v>
       </c>
       <c r="I18">
-        <v>24.15139110522859</v>
+        <v>28.66448649774854</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.811514539854343</v>
+        <v>10.60448613667635</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.23460500650929</v>
+        <v>18.63302969374399</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.03434923368638</v>
+        <v>22.78901089657312</v>
       </c>
       <c r="C19">
-        <v>22.00427944296336</v>
+        <v>11.83215378823494</v>
       </c>
       <c r="D19">
-        <v>3.75059046425895</v>
+        <v>6.697626360256736</v>
       </c>
       <c r="E19">
-        <v>5.331539477889955</v>
+        <v>9.198470446069216</v>
       </c>
       <c r="F19">
-        <v>40.05016306412172</v>
+        <v>37.37500620465536</v>
       </c>
       <c r="I19">
-        <v>24.08828961448192</v>
+        <v>28.66051348478783</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.784170918326753</v>
+        <v>10.60146330695492</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.26020341016527</v>
+        <v>18.63902392427746</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.71345254735451</v>
+        <v>22.99589885933139</v>
       </c>
       <c r="C20">
-        <v>22.47257305397486</v>
+        <v>12.04182693240933</v>
       </c>
       <c r="D20">
-        <v>3.712436170837975</v>
+        <v>6.686838838090857</v>
       </c>
       <c r="E20">
-        <v>5.322377213292064</v>
+        <v>9.193005439541666</v>
       </c>
       <c r="F20">
-        <v>40.75030896857992</v>
+        <v>37.50236827021763</v>
       </c>
       <c r="I20">
-        <v>24.37390258271564</v>
+        <v>28.67892133226497</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.907230840310014</v>
+        <v>10.61521272094718</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.14507894037832</v>
+        <v>18.61217995599822</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.93789127650821</v>
+        <v>23.68435947295143</v>
       </c>
       <c r="C21">
-        <v>24.00849091580861</v>
+        <v>12.7762332278824</v>
       </c>
       <c r="D21">
-        <v>3.587812545138444</v>
+        <v>6.651702819253302</v>
       </c>
       <c r="E21">
-        <v>5.293581963798313</v>
+        <v>9.175377751775082</v>
       </c>
       <c r="F21">
-        <v>43.10477370641037</v>
+        <v>37.94146166194658</v>
       </c>
       <c r="I21">
-        <v>25.36330759028481</v>
+        <v>28.75002175493066</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.320924248237686</v>
+        <v>10.6639481384353</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.75925724776189</v>
+        <v>18.524270245999</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.35116528291354</v>
+        <v>24.12853783968321</v>
       </c>
       <c r="C22">
-        <v>24.98616969271711</v>
+        <v>13.23470802046167</v>
       </c>
       <c r="D22">
-        <v>3.509454261015484</v>
+        <v>6.629565122831426</v>
       </c>
       <c r="E22">
-        <v>5.27634470471668</v>
+        <v>9.164402554231705</v>
       </c>
       <c r="F22">
-        <v>44.64671785718364</v>
+        <v>38.23637478608262</v>
       </c>
       <c r="I22">
-        <v>26.03342754253419</v>
+        <v>28.8033788326156</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.591586317802909</v>
+        <v>10.69766437610747</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.50751090197673</v>
+        <v>18.46851056266728</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.60043407536123</v>
+        <v>23.89204955847351</v>
       </c>
       <c r="C23">
-        <v>24.46663125740841</v>
+        <v>12.99199486383818</v>
       </c>
       <c r="D23">
-        <v>3.550960721980036</v>
+        <v>6.641304903198068</v>
       </c>
       <c r="E23">
-        <v>5.285392734565034</v>
+        <v>9.170210406697766</v>
       </c>
       <c r="F23">
-        <v>43.82333359816199</v>
+        <v>38.07827296492252</v>
       </c>
       <c r="I23">
-        <v>25.67352977319326</v>
+        <v>28.77427153328342</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.447090953609221</v>
+        <v>10.67950060750448</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.64185552983797</v>
+        <v>18.49811594326404</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.67637990737119</v>
+        <v>22.98456044952696</v>
       </c>
       <c r="C24">
-        <v>22.44700191890633</v>
+        <v>12.03039947664987</v>
       </c>
       <c r="D24">
-        <v>3.71451892488631</v>
+        <v>6.687427065286801</v>
       </c>
       <c r="E24">
-        <v>5.322873109860284</v>
+        <v>9.193302786375705</v>
       </c>
       <c r="F24">
-        <v>40.71185562939215</v>
+        <v>37.49533114797842</v>
       </c>
       <c r="I24">
-        <v>24.35810892616193</v>
+        <v>28.67787564433229</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.900472270230745</v>
+        <v>10.61444804844028</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.1513965179303</v>
+        <v>18.61364549512675</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.33509738211596</v>
+        <v>21.98631678544643</v>
       </c>
       <c r="C25">
-        <v>20.14512878891329</v>
+        <v>10.99264676656228</v>
       </c>
       <c r="D25">
-        <v>3.901702763938252</v>
+        <v>6.74072620691786</v>
       </c>
       <c r="E25">
-        <v>5.36948853919093</v>
+        <v>9.220563821023314</v>
       </c>
       <c r="F25">
-        <v>37.3605342099598</v>
+        <v>36.90309456335991</v>
       </c>
       <c r="I25">
-        <v>23.0323520297887</v>
+        <v>28.60350039645794</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.311595296200004</v>
+        <v>10.55245811483962</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.70485745134687</v>
+        <v>18.7455812981164</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_105/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_105/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.24103426297824</v>
+        <v>26.70127746173166</v>
       </c>
       <c r="C2">
-        <v>10.16730127147443</v>
+        <v>18.3332587496589</v>
       </c>
       <c r="D2">
-        <v>6.783034899723307</v>
+        <v>4.046931801171641</v>
       </c>
       <c r="E2">
-        <v>9.242673668494666</v>
+        <v>5.40860600517304</v>
       </c>
       <c r="F2">
-        <v>36.50089427488131</v>
+        <v>34.8936801089252</v>
       </c>
       <c r="I2">
-        <v>28.57412395558024</v>
+        <v>22.12958310995354</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.51400227631765</v>
+        <v>7.878944324378351</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.8490871953992</v>
+        <v>12.11801199061194</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.73311303431587</v>
+        <v>24.80289201459404</v>
       </c>
       <c r="C3">
-        <v>9.571374779614219</v>
+        <v>17.027675720573</v>
       </c>
       <c r="D3">
-        <v>6.813626447635501</v>
+        <v>4.149420517294872</v>
       </c>
       <c r="E3">
-        <v>9.258936321943976</v>
+        <v>5.437904656594639</v>
       </c>
       <c r="F3">
-        <v>36.25053531943211</v>
+        <v>33.22430197291442</v>
       </c>
       <c r="I3">
-        <v>28.56997137617331</v>
+        <v>21.56094985310358</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.49248674702804</v>
+        <v>7.586995017726209</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.92323688013348</v>
+        <v>12.40265350953941</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.42113794443177</v>
+        <v>23.57997206530585</v>
       </c>
       <c r="C4">
-        <v>9.188186371296116</v>
+        <v>16.1863643600573</v>
       </c>
       <c r="D4">
-        <v>6.833358383625877</v>
+        <v>4.21424149252476</v>
       </c>
       <c r="E4">
-        <v>9.269554832211197</v>
+        <v>5.457215377164817</v>
       </c>
       <c r="F4">
-        <v>36.1080944637791</v>
+        <v>32.20217871810481</v>
       </c>
       <c r="I4">
-        <v>28.57515571999618</v>
+        <v>21.23234829835781</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.48153583486193</v>
+        <v>7.408720775514836</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.97075048805329</v>
+        <v>12.58006538251338</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.2941812516534</v>
+        <v>23.10449621543617</v>
       </c>
       <c r="C5">
-        <v>9.027830497371921</v>
+        <v>15.83335900231875</v>
       </c>
       <c r="D5">
-        <v>6.841638131437128</v>
+        <v>4.241120767758937</v>
       </c>
       <c r="E5">
-        <v>9.274041532107022</v>
+        <v>5.46540988656086</v>
       </c>
       <c r="F5">
-        <v>36.0529296647111</v>
+        <v>31.78673745497041</v>
       </c>
       <c r="I5">
-        <v>28.57920677570074</v>
+        <v>21.10349691627341</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.47764380748843</v>
+        <v>7.336387448443848</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.99061338602422</v>
+        <v>12.65307523672214</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.27311685253606</v>
+        <v>23.02485825587519</v>
       </c>
       <c r="C6">
-        <v>9.000954446605759</v>
+        <v>15.77412361809726</v>
       </c>
       <c r="D6">
-        <v>6.84302741041934</v>
+        <v>4.245611824834718</v>
       </c>
       <c r="E6">
-        <v>9.274796193342343</v>
+        <v>5.466790034546708</v>
       </c>
       <c r="F6">
-        <v>36.04394478096584</v>
+        <v>31.71783118295665</v>
       </c>
       <c r="I6">
-        <v>28.5799963123915</v>
+        <v>21.08240334765791</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.47703205817566</v>
+        <v>7.324397730430446</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.99394189045221</v>
+        <v>12.66524292794421</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.41942477799911</v>
+        <v>23.57354073426803</v>
       </c>
       <c r="C7">
-        <v>9.186040563501928</v>
+        <v>16.1816449987536</v>
       </c>
       <c r="D7">
-        <v>6.833469079853289</v>
+        <v>4.214602128666978</v>
       </c>
       <c r="E7">
-        <v>9.269614694835154</v>
+        <v>5.457324582900534</v>
       </c>
       <c r="F7">
-        <v>36.10733877281238</v>
+        <v>32.19657101572559</v>
       </c>
       <c r="I7">
-        <v>28.57520251507649</v>
+        <v>21.23059023780093</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.48148103274055</v>
+        <v>7.407743891748399</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.97101633678426</v>
+        <v>12.58104706844057</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.06604568684337</v>
+        <v>26.05849856921768</v>
       </c>
       <c r="C8">
-        <v>9.965490839614231</v>
+        <v>17.89121230808252</v>
       </c>
       <c r="D8">
-        <v>6.793386155724211</v>
+        <v>4.081868685400933</v>
       </c>
       <c r="E8">
-        <v>9.248149828323218</v>
+        <v>5.418429448148709</v>
       </c>
       <c r="F8">
-        <v>36.41225763017729</v>
+        <v>34.31766746479726</v>
       </c>
       <c r="I8">
-        <v>28.57108347763704</v>
+        <v>21.92919015158208</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.50611626462329</v>
+        <v>7.778113232456684</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.87424282729008</v>
+        <v>12.2156384856068</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.32462432897433</v>
+        <v>30.48682580630597</v>
       </c>
       <c r="C9">
-        <v>11.35190367399198</v>
+        <v>20.93802257313873</v>
       </c>
       <c r="D9">
-        <v>6.7222970804816</v>
+        <v>3.837402928147567</v>
       </c>
       <c r="E9">
-        <v>9.211065352732868</v>
+        <v>5.353010407593583</v>
       </c>
       <c r="F9">
-        <v>37.09748599449426</v>
+        <v>38.48932819719696</v>
       </c>
       <c r="I9">
-        <v>28.6246029503037</v>
+        <v>23.46715007849419</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.57223251628999</v>
+        <v>8.509868698319719</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.70015472599594</v>
+        <v>11.51770044121083</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.23267697735594</v>
+        <v>33.48409865791332</v>
       </c>
       <c r="C10">
-        <v>12.29779322933993</v>
+        <v>23.00431864446988</v>
       </c>
       <c r="D10">
-        <v>6.674629660981503</v>
+        <v>3.669163088399759</v>
       </c>
       <c r="E10">
-        <v>9.18685053130913</v>
+        <v>5.312183995190393</v>
       </c>
       <c r="F10">
-        <v>37.65079809015307</v>
+        <v>41.55560486910444</v>
       </c>
       <c r="I10">
-        <v>28.70170920612008</v>
+        <v>24.70743516849278</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.63146909418593</v>
+        <v>9.048760560409661</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.58171520939555</v>
+        <v>11.01290443399534</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.64006818330397</v>
+        <v>34.79615990449055</v>
       </c>
       <c r="C11">
-        <v>12.7298900396777</v>
+        <v>23.91052814866639</v>
       </c>
       <c r="D11">
-        <v>6.653931447734021</v>
+        <v>3.595717868081951</v>
       </c>
       <c r="E11">
-        <v>9.176488174595951</v>
+        <v>5.29535787517461</v>
       </c>
       <c r="F11">
-        <v>37.91253805315009</v>
+        <v>42.9520632846608</v>
       </c>
       <c r="I11">
-        <v>28.74501282236989</v>
+        <v>25.29785590465491</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.66068086674392</v>
+        <v>9.294104029979975</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.52986777789281</v>
+        <v>10.78422741250185</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.79335975593911</v>
+        <v>35.28601687225479</v>
       </c>
       <c r="C12">
-        <v>12.88978341919006</v>
+        <v>24.24917388274629</v>
       </c>
       <c r="D12">
-        <v>6.646235152498682</v>
+        <v>3.568426619745187</v>
       </c>
       <c r="E12">
-        <v>9.172657788457808</v>
+        <v>5.289255684116932</v>
       </c>
       <c r="F12">
-        <v>38.0130218233763</v>
+        <v>43.48137419899358</v>
       </c>
       <c r="I12">
-        <v>28.76259308836847</v>
+        <v>25.52543860890793</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.67206313834754</v>
+        <v>9.387055822713977</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.51052507747642</v>
+        <v>10.69770765412733</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.76039163344783</v>
+        <v>35.18082136803836</v>
       </c>
       <c r="C13">
-        <v>12.85551321178835</v>
+        <v>24.17643544832223</v>
       </c>
       <c r="D13">
-        <v>6.647886388050013</v>
+        <v>3.574279626959134</v>
       </c>
       <c r="E13">
-        <v>9.173478571884855</v>
+        <v>5.290557582430266</v>
       </c>
       <c r="F13">
-        <v>37.9913211994109</v>
+        <v>43.36734932076632</v>
       </c>
       <c r="I13">
-        <v>28.75875431951428</v>
+        <v>25.47624220756395</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.669597600867</v>
+        <v>9.367034459970379</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.51467796135169</v>
+        <v>10.71633887335786</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.65270006588486</v>
+        <v>34.83659835823274</v>
       </c>
       <c r="C14">
-        <v>12.74311925640064</v>
+        <v>23.93847714863408</v>
       </c>
       <c r="D14">
-        <v>6.65329543016428</v>
+        <v>3.593461635082487</v>
       </c>
       <c r="E14">
-        <v>9.176171171967679</v>
+        <v>5.294850324908789</v>
       </c>
       <c r="F14">
-        <v>37.92077792404056</v>
+        <v>42.99559784393503</v>
       </c>
       <c r="I14">
-        <v>28.74643548077312</v>
+        <v>25.31649749393807</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.66161090337857</v>
+        <v>9.301750141770002</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.52827062168772</v>
+        <v>10.7771082274899</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.58660385160472</v>
+        <v>34.62485414243557</v>
       </c>
       <c r="C15">
-        <v>12.67378922067842</v>
+        <v>23.79214348944264</v>
       </c>
       <c r="D15">
-        <v>6.656627071353978</v>
+        <v>3.605281691511059</v>
       </c>
       <c r="E15">
-        <v>9.17783264969602</v>
+        <v>5.29751545706549</v>
       </c>
       <c r="F15">
-        <v>37.87774408802389</v>
+        <v>42.7679654197627</v>
       </c>
       <c r="I15">
-        <v>28.73904372955536</v>
+        <v>25.2191785031076</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.65676038318122</v>
+        <v>9.26176841989721</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.53663435059106</v>
+        <v>10.81433916694734</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.20592454904577</v>
+        <v>33.39735077819125</v>
       </c>
       <c r="C16">
-        <v>12.26903137171105</v>
+        <v>22.94444433911307</v>
       </c>
       <c r="D16">
-        <v>6.676002167679415</v>
+        <v>3.674031081396278</v>
       </c>
       <c r="E16">
-        <v>9.187540851740048</v>
+        <v>5.313320252311017</v>
       </c>
       <c r="F16">
-        <v>37.63388840599705</v>
+        <v>41.46439509525507</v>
       </c>
       <c r="I16">
-        <v>28.69904472196469</v>
+        <v>24.66939596033792</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.62960516940929</v>
+        <v>9.032731746511955</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.58514432422562</v>
+        <v>11.02786294306179</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.97081540977798</v>
+        <v>32.63141660766645</v>
       </c>
       <c r="C17">
-        <v>12.0165367899396</v>
+        <v>22.41598920928544</v>
       </c>
       <c r="D17">
-        <v>6.688140599012551</v>
+        <v>3.717045041937859</v>
       </c>
       <c r="E17">
-        <v>9.193663575672497</v>
+        <v>5.32347522555767</v>
       </c>
       <c r="F17">
-        <v>37.4868091482114</v>
+        <v>40.66525341345157</v>
       </c>
       <c r="I17">
-        <v>28.6766136714958</v>
+        <v>24.33898484305384</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.61352278486969</v>
+        <v>8.892281418258429</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.61542295431744</v>
+        <v>11.15905368272406</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.83506048648382</v>
+        <v>32.1860050513375</v>
       </c>
       <c r="C18">
-        <v>11.87903912708894</v>
+        <v>22.10883561674915</v>
       </c>
       <c r="D18">
-        <v>6.69521510944418</v>
+        <v>3.742070368094298</v>
       </c>
       <c r="E18">
-        <v>9.197246693790493</v>
+        <v>5.329479152599292</v>
       </c>
       <c r="F18">
-        <v>37.4031623237573</v>
+        <v>40.20573319317888</v>
       </c>
       <c r="I18">
-        <v>28.66448649774854</v>
+        <v>24.15139110522867</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.60448613667635</v>
+        <v>8.811514539854354</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.63302969374399</v>
+        <v>11.23460500650933</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.78901089657312</v>
+        <v>32.0343492336864</v>
       </c>
       <c r="C19">
-        <v>11.83215378823494</v>
+        <v>22.00427944296339</v>
       </c>
       <c r="D19">
-        <v>6.697626360256736</v>
+        <v>3.750590464259012</v>
       </c>
       <c r="E19">
-        <v>9.198470446069216</v>
+        <v>5.331539477889955</v>
       </c>
       <c r="F19">
-        <v>37.37500620465536</v>
+        <v>40.0501630641218</v>
       </c>
       <c r="I19">
-        <v>28.66051348478783</v>
+        <v>24.088289614482</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.60146330695492</v>
+        <v>8.784170918326767</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.63902392427746</v>
+        <v>11.26020341016529</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.99589885933139</v>
+        <v>32.71345254735437</v>
       </c>
       <c r="C20">
-        <v>12.04182693240933</v>
+        <v>22.47257305397471</v>
       </c>
       <c r="D20">
-        <v>6.686838838090857</v>
+        <v>3.712436170838069</v>
       </c>
       <c r="E20">
-        <v>9.193005439541666</v>
+        <v>5.322377213292073</v>
       </c>
       <c r="F20">
-        <v>37.50236827021763</v>
+        <v>40.75030896857992</v>
       </c>
       <c r="I20">
-        <v>28.67892133226497</v>
+        <v>24.37390258271571</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.61521272094718</v>
+        <v>8.90723084031001</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.61217995599822</v>
+        <v>11.14507894037841</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.68435947295143</v>
+        <v>34.93789127650835</v>
       </c>
       <c r="C21">
-        <v>12.7762332278824</v>
+        <v>24.00849091580884</v>
       </c>
       <c r="D21">
-        <v>6.651702819253302</v>
+        <v>3.587812545138468</v>
       </c>
       <c r="E21">
-        <v>9.175377751775082</v>
+        <v>5.293581963798514</v>
       </c>
       <c r="F21">
-        <v>37.94146166194658</v>
+        <v>43.10477370641052</v>
       </c>
       <c r="I21">
-        <v>28.75002175493066</v>
+        <v>25.36330759028488</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.6639481384353</v>
+        <v>9.320924248237716</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.524270245999</v>
+        <v>10.75925724776182</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.12853783968321</v>
+        <v>36.35116528291365</v>
       </c>
       <c r="C22">
-        <v>13.23470802046167</v>
+        <v>24.98616969271709</v>
       </c>
       <c r="D22">
-        <v>6.629565122831426</v>
+        <v>3.50945426101549</v>
       </c>
       <c r="E22">
-        <v>9.164402554231705</v>
+        <v>5.276344704716625</v>
       </c>
       <c r="F22">
-        <v>38.23637478608262</v>
+        <v>44.6467178571837</v>
       </c>
       <c r="I22">
-        <v>28.8033788326156</v>
+        <v>26.03342754253421</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.69766437610747</v>
+        <v>9.591586317802911</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.46851056266728</v>
+        <v>10.5075109019767</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.89204955847351</v>
+        <v>35.60043407536123</v>
       </c>
       <c r="C23">
-        <v>12.99199486383818</v>
+        <v>24.46663125740833</v>
       </c>
       <c r="D23">
-        <v>6.641304903198068</v>
+        <v>3.550960721980045</v>
       </c>
       <c r="E23">
-        <v>9.170210406697766</v>
+        <v>5.28539273456504</v>
       </c>
       <c r="F23">
-        <v>38.07827296492252</v>
+        <v>43.823333598162</v>
       </c>
       <c r="I23">
-        <v>28.77427153328342</v>
+        <v>25.67352977319332</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.67950060750448</v>
+        <v>9.447090953609234</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.49811594326404</v>
+        <v>10.64185552983807</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.98456044952696</v>
+        <v>32.67637990737126</v>
       </c>
       <c r="C24">
-        <v>12.03039947664987</v>
+        <v>22.44700191890653</v>
       </c>
       <c r="D24">
-        <v>6.687427065286801</v>
+        <v>3.714518924886393</v>
       </c>
       <c r="E24">
-        <v>9.193302786375705</v>
+        <v>5.322873109860405</v>
       </c>
       <c r="F24">
-        <v>37.49533114797842</v>
+        <v>40.71185562939226</v>
       </c>
       <c r="I24">
-        <v>28.67787564433229</v>
+        <v>24.35810892616195</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.61444804844028</v>
+        <v>8.900472270230749</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.61364549512675</v>
+        <v>11.15139651793019</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.98631678544643</v>
+        <v>29.33509738211601</v>
       </c>
       <c r="C25">
-        <v>10.99264676656228</v>
+        <v>20.14512878891336</v>
       </c>
       <c r="D25">
-        <v>6.74072620691786</v>
+        <v>3.901702763938324</v>
       </c>
       <c r="E25">
-        <v>9.220563821023314</v>
+        <v>5.369488539191123</v>
       </c>
       <c r="F25">
-        <v>36.90309456335991</v>
+        <v>37.36053420995988</v>
       </c>
       <c r="I25">
-        <v>28.60350039645794</v>
+        <v>23.03235202978875</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.55245811483962</v>
+        <v>8.311595296200057</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.7455812981164</v>
+        <v>11.70485745134688</v>
       </c>
       <c r="O25">
         <v>0</v>
